--- a/biology/Médecine/Daniel_de_Superville_(médecin)/Daniel_de_Superville_(médecin).xlsx
+++ b/biology/Médecine/Daniel_de_Superville_(médecin)/Daniel_de_Superville_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniel_de_Superville_(m%C3%A9decin)</t>
+          <t>Daniel_de_Superville_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel de Superville (Rotterdam, 2 décembre 1696 - Rotterdam, 16 novembre 1773) est un médecin et universitaire néerlandais qui fonde en 1742 l'université d'Erlangen en Allemagne. Il est chancelier de l'université jusqu'en 1748. Superville a aussi écrit plusieurs traités d'anatomie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daniel_de_Superville_(m%C3%A9decin)</t>
+          <t>Daniel_de_Superville_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel de Superville est issu d'une famille de huguenots français qui ont fui aux Pays-Bas après la Révocation de l'Édit de Nantes. Il est le troisième fils du marchand Jacques (Jacob) de Superville et de Marguerite Vettekeuken. Son oncle est le célèbre théologien calviniste Daniel de Superville (1657-1728).
 Il entre à l'Université de Leyde en 1719 mais a déjà obtenu son doctorat un an plus tôt à l'université d'Utrecht avec une dissertation intitulée Dissertatio de sanguine et sanguificatione. En 1722, il épouse Catherine Elisabeth le Comte à Leyde, et le 21 juin de la même année, le couple part pour la Prusse, où Superville trouve un emploi de lecteur d'anatomie et de chirurgie à Stettin.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daniel_de_Superville_(m%C3%A9decin)</t>
+          <t>Daniel_de_Superville_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(nl) Kees Vellenga, "In het voetspoor van Röntgen 2008", Historische Commissie van de Nederlandse Vereniging voor Radiologie
 (de) Wer ist wer in Bayreuth: Daniel de Superville
